--- a/excel_out.xlsx
+++ b/excel_out.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>power outage</t>
+          <t>Oncor is not aware of an existing outage at this address:</t>
         </is>
       </c>
     </row>
